--- a/biology/Médecine/Polycliniques_en_Algérie/Polycliniques_en_Algérie.xlsx
+++ b/biology/Médecine/Polycliniques_en_Algérie/Polycliniques_en_Algérie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Polycliniques_en_Alg%C3%A9rie</t>
+          <t>Polycliniques_en_Algérie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La polyclinique en Algérie est la structure médiane du système de santé national, entre la salle de soins et l'hôpital. En 2022, l’Algérie comptait 1 767 polycliniques[1].
+La polyclinique en Algérie est la structure médiane du système de santé national, entre la salle de soins et l'hôpital. En 2022, l’Algérie comptait 1 767 polycliniques.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Polycliniques_en_Alg%C3%A9rie</t>
+          <t>Polycliniques_en_Algérie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des structures extra-hospitalières qui ont pour objectif la prise en charge généraliste et spécialisée des malades orientés par les structures de prévention et de soins de base de la population que sont les salles de soins.
 C'est sous la tutelle des hôpitaux algériens qu'est organisée et programmée la distribution des soins dans ces polycliniqes.
